--- a/random_method/solutions/solution_60_homogeneous_evolutionary.xlsx
+++ b/random_method/solutions/solution_60_homogeneous_evolutionary.xlsx
@@ -460,11 +460,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>541.2966861282302</v>
+        <v>541.3548816088227</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +542,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S051</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S051</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S022</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S022</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S053</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S025</t>
+          <t>S045</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S025</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S045</t>
+          <t>S055</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S053</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S046</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S055</t>
+          <t>S056</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S056</t>
+          <t>S057</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S057</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S059</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S046</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S058</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S058</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S059</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S050</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S050</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S060</t>
+          <t>S020</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S020</t>
+          <t>S060</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>541.2966861282302</v>
+        <v>541.2268461455292</v>
       </c>
     </row>
     <row r="3">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>541.2692020759001</v>
+        <v>541.3041247702455</v>
       </c>
     </row>
     <row r="4">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.2883068439829</v>
+        <v>541.3548816088227</v>
       </c>
     </row>
   </sheetData>
